--- a/MyAutomatonProject/ExcelFiles/LoginData.xlsx
+++ b/MyAutomatonProject/ExcelFiles/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StarAgile\Demos\SA2407054\MyAutomatonProject\ExcelFiles\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>User Name</t>
   </si>
@@ -73,12 +73,19 @@
   </si>
   <si>
     <t>ankush123</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,102 +406,102 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="C4" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="C6" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="C8" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="C9" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/MyAutomatonProject/ExcelFiles/LoginData.xlsx
+++ b/MyAutomatonProject/ExcelFiles/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>User Name</t>
   </si>
@@ -86,13 +86,61 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,8 +163,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +479,7 @@
       <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="1">
         <v>18</v>
       </c>
     </row>
@@ -434,7 +490,7 @@
       <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="2">
         <v>18</v>
       </c>
     </row>
@@ -445,7 +501,7 @@
       <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s" s="3">
         <v>19</v>
       </c>
     </row>
@@ -456,7 +512,7 @@
       <c r="B5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
     </row>
@@ -467,7 +523,7 @@
       <c r="B6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s" s="5">
         <v>19</v>
       </c>
     </row>
@@ -478,7 +534,7 @@
       <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s" s="6">
         <v>18</v>
       </c>
     </row>
@@ -489,7 +545,7 @@
       <c r="B8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s" s="7">
         <v>18</v>
       </c>
     </row>
@@ -500,7 +556,7 @@
       <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s" s="8">
         <v>18</v>
       </c>
     </row>
